--- a/forecast_dataset.xlsx
+++ b/forecast_dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aikoo\Desktop\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aikoo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DEE30F-98E1-4775-A61E-1B2F0850EF93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335E7100-F571-4F85-9859-A858FBF7C6E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{9BA9010E-9C44-48BD-A8B7-BF0139119660}"/>
   </bookViews>
@@ -400,9 +400,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE850C8-92BA-4401-8D0F-7D6530EB67D9}">
-  <dimension ref="A1:B109"/>
+  <dimension ref="A1:B116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1281,6 +1283,62 @@
         <v>2701.9</v>
       </c>
     </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A110" s="2">
+        <v>43466</v>
+      </c>
+      <c r="B110">
+        <v>2208.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A111" s="2">
+        <v>43497</v>
+      </c>
+      <c r="B111">
+        <v>2337.1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A112" s="2">
+        <v>43525</v>
+      </c>
+      <c r="B112">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A113" s="2">
+        <v>43556</v>
+      </c>
+      <c r="B113">
+        <v>1561.6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A114" s="2">
+        <v>43586</v>
+      </c>
+      <c r="B114">
+        <v>1147.7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A115" s="2">
+        <v>43617</v>
+      </c>
+      <c r="B115">
+        <v>940.6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A116" s="2">
+        <v>43647</v>
+      </c>
+      <c r="B116">
+        <v>1632.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/forecast_dataset.xlsx
+++ b/forecast_dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aikoo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335E7100-F571-4F85-9859-A858FBF7C6E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848ADAE2-F16E-46DB-9635-1CC417CD3DC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{9BA9010E-9C44-48BD-A8B7-BF0139119660}"/>
   </bookViews>
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE850C8-92BA-4401-8D0F-7D6530EB67D9}">
-  <dimension ref="A1:B116"/>
+  <dimension ref="A1:B122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E114" sqref="E114"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1339,6 +1339,49 @@
         <v>1632.5</v>
       </c>
     </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A117" s="2">
+        <v>43678</v>
+      </c>
+      <c r="B117">
+        <v>2192.3000000000002</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A118" s="2">
+        <v>43709</v>
+      </c>
+      <c r="B118">
+        <v>2333.4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A119" s="2">
+        <v>43739</v>
+      </c>
+      <c r="B119">
+        <v>2606.6999999999998</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A120" s="2">
+        <v>43770</v>
+      </c>
+      <c r="B120">
+        <v>2527.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A121" s="2">
+        <v>43800</v>
+      </c>
+      <c r="B121">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A122" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
